--- a/data/trans_media/Q02G_LAB-Edad-trans_media.xlsx
+++ b/data/trans_media/Q02G_LAB-Edad-trans_media.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -644,7 +644,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,32; 4,3</t>
+          <t>1,32; 4,25</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -654,7 +654,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,97; 9,42</t>
+          <t>1,89; 9,3</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,96; 6,05</t>
+          <t>2,01; 5,77</t>
         </is>
       </c>
     </row>
@@ -719,7 +719,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,15; 6,46</t>
+          <t>3,11; 6,43</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -729,22 +729,22 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,01; 4,14</t>
+          <t>2,08; 4,11</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,7; 4,98</t>
+          <t>1,73; 4,88</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,01; 5,31</t>
+          <t>3,01; 5,53</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,06; 4,15</t>
+          <t>2,0; 4,18</t>
         </is>
       </c>
     </row>
@@ -799,32 +799,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,25; 4,31</t>
+          <t>1,36; 4,68</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,75; 2,62</t>
+          <t>0,85; 2,82</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,43; 4,36</t>
+          <t>2,41; 4,39</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,67; 4,88</t>
+          <t>2,78; 5,13</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,41; 3,98</t>
+          <t>2,35; 3,98</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,34; 4,28</t>
+          <t>2,34; 4,46</t>
         </is>
       </c>
     </row>
@@ -879,32 +879,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,45; 7,32</t>
+          <t>3,45; 7,09</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,2; 7,0</t>
+          <t>3,08; 7,1</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,81; 5,82</t>
+          <t>3,8; 5,82</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,03; 5,51</t>
+          <t>3,17; 5,45</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,89; 5,62</t>
+          <t>3,81; 5,59</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,3; 5,37</t>
+          <t>3,34; 5,22</t>
         </is>
       </c>
     </row>
@@ -964,27 +964,27 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,42; 10,0</t>
+          <t>2,45; 9,83</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,05; 6,29</t>
+          <t>3,01; 6,24</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,36; 7,25</t>
+          <t>3,44; 7,01</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,76; 5,36</t>
+          <t>2,75; 5,08</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,33; 6,47</t>
+          <t>3,44; 6,56</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1039,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,37; 7,25</t>
+          <t>2,32; 6,98</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,86; 5,42</t>
+          <t>1,86; 5,27</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,83; 5,09</t>
+          <t>2,93; 5,27</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>3,2; 6,48</t>
+          <t>3,26; 6,45</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>3,0; 5,32</t>
+          <t>2,89; 5,16</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>3,07; 5,62</t>
+          <t>3,04; 5,52</t>
         </is>
       </c>
     </row>
@@ -1119,32 +1119,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,04; 4,71</t>
+          <t>3,07; 4,72</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,74; 4,93</t>
+          <t>2,77; 4,91</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,55; 4,65</t>
+          <t>3,5; 4,69</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,45; 4,8</t>
+          <t>3,51; 4,83</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>3,49; 4,43</t>
+          <t>3,56; 4,47</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>3,46; 4,53</t>
+          <t>3,44; 4,56</t>
         </is>
       </c>
     </row>
